--- a/out/test/Figori_algorithm_26.xlsx
+++ b/out/test/Figori_algorithm_26.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.77234999999999998</v>
+        <v>0.77244999999999997</v>
       </c>
       <c r="B1">
-        <v>0.70930000000000004</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="C1">
+        <v>0.78039999999999998</v>
+      </c>
+      <c r="D1">
+        <v>0.76034999999999997</v>
+      </c>
+      <c r="E1">
+        <v>0.71589999999999998</v>
+      </c>
+      <c r="F1">
+        <v>0.69704999999999995</v>
+      </c>
+      <c r="G1">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="H1">
+        <v>0.6966</v>
+      </c>
+      <c r="I1">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="J1">
+        <v>0.71875</v>
+      </c>
+      <c r="K1">
+        <v>0.66830000000000001</v>
+      </c>
+      <c r="L1">
+        <v>0.72560000000000002</v>
+      </c>
+      <c r="M1">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="N1">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="O1">
+        <v>0.72370000000000001</v>
+      </c>
+      <c r="P1">
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="Q1">
+        <v>0.71425000000000005</v>
+      </c>
+      <c r="R1">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="S1">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="T1">
+        <v>0.7228</v>
+      </c>
+      <c r="U1">
+        <v>0.75034999999999996</v>
+      </c>
+      <c r="V1">
+        <v>0.7056</v>
+      </c>
+      <c r="W1">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="X1">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="Y1">
         <v>0.67949999999999999</v>
       </c>
-      <c r="D1">
-        <v>0.70935000000000004</v>
-      </c>
-      <c r="E1">
-        <v>0.70565</v>
-      </c>
-      <c r="F1">
-        <v>0.71694999999999998</v>
-      </c>
-      <c r="G1">
-        <v>0.67059999999999997</v>
-      </c>
-      <c r="H1">
-        <v>0.75549999999999995</v>
-      </c>
-      <c r="I1">
-        <v>0.78310000000000002</v>
-      </c>
-      <c r="J1">
-        <v>0.69940000000000002</v>
-      </c>
-      <c r="K1">
-        <v>0.67589999999999995</v>
-      </c>
-      <c r="L1">
-        <v>0.72845000000000004</v>
-      </c>
-      <c r="M1">
-        <v>0.70145000000000002</v>
-      </c>
-      <c r="N1">
-        <v>0.66810000000000003</v>
-      </c>
-      <c r="O1">
-        <v>0.75649999999999995</v>
-      </c>
-      <c r="P1">
-        <v>0.70820000000000005</v>
-      </c>
-      <c r="Q1">
-        <v>0.75185000000000002</v>
-      </c>
-      <c r="R1">
-        <v>0.69889999999999997</v>
-      </c>
-      <c r="S1">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="T1">
-        <v>0.72719999999999996</v>
-      </c>
-      <c r="U1">
-        <v>0.70204999999999995</v>
-      </c>
-      <c r="V1">
-        <v>0.70030000000000003</v>
-      </c>
-      <c r="W1">
-        <v>0.72040000000000004</v>
-      </c>
-      <c r="X1">
-        <v>0.7056</v>
-      </c>
-      <c r="Y1">
-        <v>0.77490000000000003</v>
-      </c>
       <c r="Z1">
-        <v>0.74429999999999996</v>
+        <v>0.74919999999999998</v>
       </c>
       <c r="AA1">
-        <v>0.69815000000000005</v>
+        <v>0.77275000000000005</v>
       </c>
       <c r="AB1">
-        <v>0.75029999999999997</v>
+        <v>0.70684999999999998</v>
       </c>
       <c r="AC1">
-        <v>0.76944999999999997</v>
+        <v>0.77659999999999996</v>
       </c>
       <c r="AD1">
-        <v>0.72294999999999998</v>
+        <v>0.72345000000000004</v>
       </c>
       <c r="AE1">
-        <v>0.76880000000000004</v>
+        <v>0.69594999999999996</v>
       </c>
       <c r="AF1">
-        <v>0.68049999999999999</v>
+        <v>0.68169999999999997</v>
       </c>
       <c r="AG1">
-        <v>0.72940000000000005</v>
+        <v>0.6996</v>
       </c>
       <c r="AH1">
-        <v>0.72960000000000003</v>
+        <v>0.76824999999999999</v>
       </c>
       <c r="AI1">
-        <v>0.70830000000000004</v>
+        <v>0.66954999999999998</v>
       </c>
       <c r="AJ1">
-        <v>0.77539999999999998</v>
+        <v>0.7127</v>
       </c>
       <c r="AK1">
-        <v>0.71389999999999998</v>
+        <v>0.72709999999999997</v>
       </c>
       <c r="AL1">
-        <v>0.73</v>
+        <v>0.73234999999999995</v>
       </c>
       <c r="AM1">
-        <v>0.72985</v>
+        <v>0.74160000000000004</v>
       </c>
       <c r="AN1">
-        <v>0.70640000000000003</v>
+        <v>0.71</v>
       </c>
       <c r="AO1">
-        <v>0.70504999999999995</v>
+        <v>0.68959999999999999</v>
       </c>
       <c r="AP1">
-        <v>0.70750000000000002</v>
+        <v>0.70465</v>
       </c>
       <c r="AQ1">
-        <v>0.71889999999999998</v>
+        <v>0.77890000000000004</v>
       </c>
       <c r="AR1">
-        <v>0.71120000000000005</v>
+        <v>0.72230000000000005</v>
       </c>
       <c r="AS1">
-        <v>0.74590000000000001</v>
+        <v>0.73970000000000002</v>
       </c>
       <c r="AT1">
-        <v>0.71145000000000003</v>
+        <v>0.76534999999999997</v>
       </c>
       <c r="AU1">
-        <v>0.70630000000000004</v>
+        <v>0.66944999999999999</v>
       </c>
       <c r="AV1">
-        <v>0.67859999999999998</v>
+        <v>0.70594999999999997</v>
       </c>
       <c r="AW1">
-        <v>0.71499999999999997</v>
+        <v>0.67354999999999998</v>
       </c>
       <c r="AX1">
-        <v>0.74990000000000001</v>
+        <v>0.74995000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.74329999999999996</v>
+        <v>0.70179999999999998</v>
       </c>
       <c r="B2">
-        <v>0.68230000000000002</v>
+        <v>0.61904999999999999</v>
       </c>
       <c r="C2">
-        <v>0.4753</v>
+        <v>0.75805</v>
       </c>
       <c r="D2">
-        <v>0.64864999999999995</v>
+        <v>0.7036</v>
       </c>
       <c r="E2">
-        <v>0.74360000000000004</v>
+        <v>0.67174999999999996</v>
       </c>
       <c r="F2">
-        <v>0.82040000000000002</v>
+        <v>0.65485000000000004</v>
       </c>
       <c r="G2">
-        <v>0.60270000000000001</v>
+        <v>0.70030000000000003</v>
       </c>
       <c r="H2">
-        <v>0.83489999999999998</v>
+        <v>0.57589999999999997</v>
       </c>
       <c r="I2">
-        <v>0.86809999999999998</v>
+        <v>0.77370000000000005</v>
       </c>
       <c r="J2">
-        <v>0.65364999999999995</v>
+        <v>0.79564999999999997</v>
       </c>
       <c r="K2">
-        <v>0.66544999999999999</v>
+        <v>0.70940000000000003</v>
       </c>
       <c r="L2">
-        <v>0.68820000000000003</v>
+        <v>0.70415000000000005</v>
       </c>
       <c r="M2">
-        <v>0.69284999999999997</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="N2">
-        <v>0.67430000000000001</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="O2">
-        <v>0.69394999999999996</v>
+        <v>0.63539999999999996</v>
       </c>
       <c r="P2">
-        <v>0.68855</v>
+        <v>0.60065000000000002</v>
       </c>
       <c r="Q2">
-        <v>0.67620000000000002</v>
+        <v>0.70855000000000001</v>
       </c>
       <c r="R2">
-        <v>0.78034999999999999</v>
+        <v>0.69945000000000002</v>
       </c>
       <c r="S2">
-        <v>0.61140000000000005</v>
+        <v>0.74519999999999997</v>
       </c>
       <c r="T2">
-        <v>0.78585000000000005</v>
+        <v>0.67549999999999999</v>
       </c>
       <c r="U2">
-        <v>0.82084999999999997</v>
+        <v>0.68145</v>
       </c>
       <c r="V2">
-        <v>0.7722</v>
+        <v>0.63160000000000005</v>
       </c>
       <c r="W2">
-        <v>0.68969999999999998</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="X2">
-        <v>0.70555000000000001</v>
+        <v>0.64795000000000003</v>
       </c>
       <c r="Y2">
-        <v>0.73429999999999995</v>
+        <v>0.71074999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.77839999999999998</v>
+        <v>0.63675000000000004</v>
       </c>
       <c r="AA2">
-        <v>0.63390000000000002</v>
+        <v>0.81269999999999998</v>
       </c>
       <c r="AB2">
-        <v>0.69159999999999999</v>
+        <v>0.65725</v>
       </c>
       <c r="AC2">
-        <v>0.72365000000000002</v>
+        <v>0.77980000000000005</v>
       </c>
       <c r="AD2">
-        <v>0.61175000000000002</v>
+        <v>0.65495000000000003</v>
       </c>
       <c r="AE2">
-        <v>0.72770000000000001</v>
+        <v>0.64265000000000005</v>
       </c>
       <c r="AF2">
-        <v>0.77529999999999999</v>
+        <v>0.66690000000000005</v>
       </c>
       <c r="AG2">
-        <v>0.67379999999999995</v>
+        <v>0.82415000000000005</v>
       </c>
       <c r="AH2">
-        <v>0.80435000000000001</v>
+        <v>0.81059999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.69845000000000002</v>
+        <v>0.56955</v>
       </c>
       <c r="AJ2">
-        <v>0.66190000000000004</v>
+        <v>0.63180000000000003</v>
       </c>
       <c r="AK2">
-        <v>0.71079999999999999</v>
+        <v>0.66810000000000003</v>
       </c>
       <c r="AL2">
-        <v>0.81189999999999996</v>
+        <v>0.69279999999999997</v>
       </c>
       <c r="AM2">
-        <v>0.65334999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AN2">
-        <v>0.78434999999999999</v>
+        <v>0.57289999999999996</v>
       </c>
       <c r="AO2">
-        <v>0.60924999999999996</v>
+        <v>0.55059999999999998</v>
       </c>
       <c r="AP2">
-        <v>0.54990000000000006</v>
+        <v>0.63595000000000002</v>
       </c>
       <c r="AQ2">
-        <v>0.68540000000000001</v>
+        <v>0.87029999999999996</v>
       </c>
       <c r="AR2">
-        <v>0.66320000000000001</v>
+        <v>0.83889999999999998</v>
       </c>
       <c r="AS2">
-        <v>0.71779999999999999</v>
+        <v>0.73809999999999998</v>
       </c>
       <c r="AT2">
-        <v>0.66664999999999996</v>
+        <v>0.81769999999999998</v>
       </c>
       <c r="AU2">
-        <v>0.58120000000000005</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="AV2">
-        <v>0.55910000000000004</v>
+        <v>0.81594999999999995</v>
       </c>
       <c r="AW2">
-        <v>0.80859999999999999</v>
+        <v>0.65725</v>
       </c>
       <c r="AX2">
-        <v>0.83425000000000005</v>
+        <v>0.69310000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.83679999999999999</v>
+        <v>0.55630000000000002</v>
       </c>
       <c r="B3">
-        <v>0.84099999999999997</v>
+        <v>0.66990000000000005</v>
       </c>
       <c r="C3">
-        <v>0.39889999999999998</v>
+        <v>0.82769999999999999</v>
       </c>
       <c r="D3">
-        <v>0.81345000000000001</v>
+        <v>0.72640000000000005</v>
       </c>
       <c r="E3">
-        <v>0.89370000000000005</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="F3">
-        <v>0.76329999999999998</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="G3">
-        <v>0.3765</v>
+        <v>0.77544999999999997</v>
       </c>
       <c r="H3">
-        <v>0.67064999999999997</v>
+        <v>0.29354999999999998</v>
       </c>
       <c r="I3">
-        <v>0.93030000000000002</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="J3">
-        <v>0.57094999999999996</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="K3">
-        <v>0.63165000000000004</v>
+        <v>0.69889999999999997</v>
       </c>
       <c r="L3">
-        <v>0.56705000000000005</v>
+        <v>0.74865000000000004</v>
       </c>
       <c r="M3">
-        <v>0.67469999999999997</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="N3">
-        <v>0.58665</v>
+        <v>0.76190000000000002</v>
       </c>
       <c r="O3">
-        <v>0.66735</v>
+        <v>0.61885000000000001</v>
       </c>
       <c r="P3">
-        <v>0.68805000000000005</v>
+        <v>0.54020000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.70650000000000002</v>
+        <v>0.65310000000000001</v>
       </c>
       <c r="R3">
-        <v>0.80894999999999995</v>
+        <v>0.71489999999999998</v>
       </c>
       <c r="S3">
-        <v>0.63365000000000005</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="T3">
-        <v>0.67084999999999995</v>
+        <v>0.77170000000000005</v>
       </c>
       <c r="U3">
-        <v>0.69930000000000003</v>
+        <v>0.4914</v>
       </c>
       <c r="V3">
-        <v>0.75019999999999998</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="W3">
-        <v>0.70579999999999998</v>
+        <v>0.72714999999999996</v>
       </c>
       <c r="X3">
-        <v>0.7833</v>
+        <v>0.59484999999999999</v>
       </c>
       <c r="Y3">
-        <v>0.67469999999999997</v>
+        <v>0.77290000000000003</v>
       </c>
       <c r="Z3">
-        <v>0.69189999999999996</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="AA3">
-        <v>0.6784</v>
+        <v>0.7873</v>
       </c>
       <c r="AB3">
-        <v>0.75465000000000004</v>
+        <v>0.50044999999999995</v>
       </c>
       <c r="AC3">
-        <v>0.80510000000000004</v>
+        <v>0.80279999999999996</v>
       </c>
       <c r="AD3">
-        <v>0.73899999999999999</v>
+        <v>0.60529999999999995</v>
       </c>
       <c r="AE3">
-        <v>0.68259999999999998</v>
+        <v>0.4541</v>
       </c>
       <c r="AF3">
-        <v>0.77380000000000004</v>
+        <v>0.56925000000000003</v>
       </c>
       <c r="AG3">
-        <v>0.76659999999999995</v>
+        <v>0.79169999999999996</v>
       </c>
       <c r="AH3">
-        <v>0.7419</v>
+        <v>0.73604999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.69564999999999999</v>
+        <v>0.59304999999999997</v>
       </c>
       <c r="AJ3">
-        <v>0.6109</v>
+        <v>0.75290000000000001</v>
       </c>
       <c r="AK3">
-        <v>0.77639999999999998</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="AL3">
-        <v>0.81140000000000001</v>
+        <v>0.71604999999999996</v>
       </c>
       <c r="AM3">
-        <v>0.60609999999999997</v>
+        <v>0.84019999999999995</v>
       </c>
       <c r="AN3">
-        <v>0.69755</v>
+        <v>0.65225</v>
       </c>
       <c r="AO3">
-        <v>0.5494</v>
+        <v>0.56574999999999998</v>
       </c>
       <c r="AP3">
-        <v>0.70579999999999998</v>
+        <v>0.54684999999999995</v>
       </c>
       <c r="AQ3">
-        <v>0.70255000000000001</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="AR3">
-        <v>0.73580000000000001</v>
+        <v>0.61990000000000001</v>
       </c>
       <c r="AS3">
-        <v>0.61209999999999998</v>
+        <v>0.72570000000000001</v>
       </c>
       <c r="AT3">
-        <v>0.51354999999999995</v>
+        <v>0.93140000000000001</v>
       </c>
       <c r="AU3">
-        <v>0.62119999999999997</v>
+        <v>0.66674999999999995</v>
       </c>
       <c r="AV3">
-        <v>0.44550000000000001</v>
+        <v>0.80405000000000004</v>
       </c>
       <c r="AW3">
-        <v>0.73070000000000002</v>
+        <v>0.58730000000000004</v>
       </c>
       <c r="AX3">
-        <v>0.56535000000000002</v>
+        <v>0.64329999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.84719999999999995</v>
+        <v>0.41920000000000002</v>
       </c>
       <c r="B4">
-        <v>0.80159999999999998</v>
+        <v>0.51170000000000004</v>
       </c>
       <c r="C4">
-        <v>0.34034999999999999</v>
+        <v>0.72094999999999998</v>
       </c>
       <c r="D4">
-        <v>0.72899999999999998</v>
+        <v>0.77390000000000003</v>
       </c>
       <c r="E4">
-        <v>0.89580000000000004</v>
+        <v>0.61729999999999996</v>
       </c>
       <c r="F4">
-        <v>0.74504999999999999</v>
+        <v>0.94850000000000001</v>
       </c>
       <c r="G4">
-        <v>0.43690000000000001</v>
+        <v>0.69389999999999996</v>
       </c>
       <c r="H4">
-        <v>0.71809999999999996</v>
+        <v>0.7006</v>
       </c>
       <c r="I4">
-        <v>0.92359999999999998</v>
+        <v>0.73740000000000006</v>
       </c>
       <c r="J4">
-        <v>0.53029999999999999</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="K4">
-        <v>0.66090000000000004</v>
+        <v>0.75160000000000005</v>
       </c>
       <c r="L4">
-        <v>0.51670000000000005</v>
+        <v>0.71179999999999999</v>
       </c>
       <c r="M4">
-        <v>0.91369999999999996</v>
+        <v>0.65639999999999998</v>
       </c>
       <c r="N4">
-        <v>0.56169999999999998</v>
+        <v>0.74470000000000003</v>
       </c>
       <c r="O4">
-        <v>0.84840000000000004</v>
+        <v>0.4844</v>
       </c>
       <c r="P4">
-        <v>0.60029999999999994</v>
+        <v>0.49180000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.70760000000000001</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="R4">
-        <v>0.9143</v>
+        <v>0.76849999999999996</v>
       </c>
       <c r="S4">
-        <v>0.78029999999999999</v>
+        <v>0.5141</v>
       </c>
       <c r="T4">
-        <v>0.56664999999999999</v>
+        <v>0.70525000000000004</v>
       </c>
       <c r="U4">
-        <v>0.7319</v>
+        <v>0.42180000000000001</v>
       </c>
       <c r="V4">
-        <v>0.69740000000000002</v>
+        <v>0.43864999999999998</v>
       </c>
       <c r="W4">
-        <v>0.61814999999999998</v>
+        <v>0.57909999999999995</v>
       </c>
       <c r="X4">
-        <v>0.64070000000000005</v>
+        <v>0.52154999999999996</v>
       </c>
       <c r="Y4">
-        <v>0.62290000000000001</v>
+        <v>0.67359999999999998</v>
       </c>
       <c r="Z4">
-        <v>0.59950000000000003</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="AA4">
-        <v>0.59865000000000002</v>
+        <v>0.57350000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.62860000000000005</v>
+        <v>0.52880000000000005</v>
       </c>
       <c r="AC4">
-        <v>0.9284</v>
+        <v>0.74980000000000002</v>
       </c>
       <c r="AD4">
-        <v>0.77569999999999995</v>
+        <v>0.64139999999999997</v>
       </c>
       <c r="AE4">
-        <v>0.69599999999999995</v>
+        <v>0.54890000000000005</v>
       </c>
       <c r="AF4">
-        <v>0.85860000000000003</v>
+        <v>0.38840000000000002</v>
       </c>
       <c r="AG4">
-        <v>0.68</v>
+        <v>0.62439999999999996</v>
       </c>
       <c r="AH4">
-        <v>0.67930000000000001</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.58899999999999997</v>
+        <v>0.70120000000000005</v>
       </c>
       <c r="AJ4">
-        <v>0.62009999999999998</v>
+        <v>0.74160000000000004</v>
       </c>
       <c r="AK4">
-        <v>0.6976</v>
+        <v>0.69340000000000002</v>
       </c>
       <c r="AL4">
-        <v>0.70615000000000006</v>
+        <v>0.44829999999999998</v>
       </c>
       <c r="AM4">
-        <v>0.55835000000000001</v>
+        <v>0.75829999999999997</v>
       </c>
       <c r="AN4">
-        <v>0.53874999999999995</v>
+        <v>0.64410000000000001</v>
       </c>
       <c r="AO4">
-        <v>0.59940000000000004</v>
+        <v>0.49595</v>
       </c>
       <c r="AP4">
-        <v>0.64910000000000001</v>
+        <v>0.50280000000000002</v>
       </c>
       <c r="AQ4">
-        <v>0.68740000000000001</v>
+        <v>0.90190000000000003</v>
       </c>
       <c r="AR4">
-        <v>0.95630000000000004</v>
+        <v>0.65134999999999998</v>
       </c>
       <c r="AS4">
-        <v>0.6532</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="AT4">
-        <v>0.6996</v>
+        <v>0.8377</v>
       </c>
       <c r="AU4">
-        <v>0.58445000000000003</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="AV4">
-        <v>0.64129999999999998</v>
+        <v>0.69979999999999998</v>
       </c>
       <c r="AW4">
-        <v>0.6794</v>
+        <v>0.55959999999999999</v>
       </c>
       <c r="AX4">
-        <v>0.39850000000000002</v>
+        <v>0.58689999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.82740000000000002</v>
+        <v>0.28649999999999998</v>
       </c>
       <c r="B5">
-        <v>0.73580000000000001</v>
+        <v>0.3705</v>
       </c>
       <c r="C5">
-        <v>0.3876</v>
+        <v>0.62339999999999995</v>
       </c>
       <c r="D5">
-        <v>0.68469999999999998</v>
+        <v>0.73109999999999997</v>
       </c>
       <c r="E5">
-        <v>0.85419999999999996</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="F5">
-        <v>0.7712</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="G5">
-        <v>0.33889999999999998</v>
+        <v>0.60550000000000004</v>
       </c>
       <c r="H5">
-        <v>0.52449999999999997</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="I5">
-        <v>0.85589999999999999</v>
+        <v>0.71709999999999996</v>
       </c>
       <c r="J5">
-        <v>0.54015000000000002</v>
+        <v>0.64429999999999998</v>
       </c>
       <c r="K5">
-        <v>0.91459999999999997</v>
+        <v>0.65339999999999998</v>
       </c>
       <c r="L5">
-        <v>0.57569999999999999</v>
+        <v>0.72819999999999996</v>
       </c>
       <c r="M5">
-        <v>0.91090000000000004</v>
+        <v>0.72829999999999995</v>
       </c>
       <c r="N5">
-        <v>0.75409999999999999</v>
+        <v>0.81469999999999998</v>
       </c>
       <c r="O5">
-        <v>0.78549999999999998</v>
+        <v>0.54330000000000001</v>
       </c>
       <c r="P5">
-        <v>0.8206</v>
+        <v>0.63670000000000004</v>
       </c>
       <c r="Q5">
-        <v>0.83560000000000001</v>
+        <v>0.77170000000000005</v>
       </c>
       <c r="R5">
-        <v>0.84240000000000004</v>
+        <v>0.79879999999999995</v>
       </c>
       <c r="S5">
-        <v>0.56869999999999998</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="T5">
-        <v>0.71589999999999998</v>
+        <v>0.62139999999999995</v>
       </c>
       <c r="U5">
-        <v>0.77449999999999997</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="V5">
-        <v>0.61539999999999995</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="W5">
-        <v>0.49275000000000002</v>
+        <v>0.41</v>
       </c>
       <c r="X5">
-        <v>0.83389999999999997</v>
+        <v>0.42435</v>
       </c>
       <c r="Y5">
-        <v>0.6079</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="Z5">
-        <v>0.67079999999999995</v>
+        <v>0.81610000000000005</v>
       </c>
       <c r="AA5">
-        <v>0.60580000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="AB5">
-        <v>0.40560000000000002</v>
+        <v>0.55810000000000004</v>
       </c>
       <c r="AC5">
-        <v>0.91959999999999997</v>
+        <v>0.93630000000000002</v>
       </c>
       <c r="AD5">
-        <v>0.77349999999999997</v>
+        <v>0.77210000000000001</v>
       </c>
       <c r="AE5">
-        <v>0.60170000000000001</v>
+        <v>0.49370000000000003</v>
       </c>
       <c r="AF5">
-        <v>0.70709999999999995</v>
+        <v>0.21940000000000001</v>
       </c>
       <c r="AG5">
-        <v>0.81720000000000004</v>
+        <v>0.59240000000000004</v>
       </c>
       <c r="AH5">
-        <v>0.51090000000000002</v>
+        <v>0.4541</v>
       </c>
       <c r="AI5">
-        <v>0.38350000000000001</v>
+        <v>0.50129999999999997</v>
       </c>
       <c r="AJ5">
-        <v>0.50960000000000005</v>
+        <v>0.95379999999999998</v>
       </c>
       <c r="AK5">
-        <v>0.60929999999999995</v>
+        <v>0.70009999999999994</v>
       </c>
       <c r="AL5">
-        <v>0.69340000000000002</v>
+        <v>0.75249999999999995</v>
       </c>
       <c r="AM5">
-        <v>0.63190000000000002</v>
+        <v>0.62719999999999998</v>
       </c>
       <c r="AN5">
-        <v>0.504</v>
+        <v>0.60570000000000002</v>
       </c>
       <c r="AO5">
-        <v>0.61639999999999995</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="AP5">
-        <v>0.61560000000000004</v>
+        <v>0.4607</v>
       </c>
       <c r="AQ5">
-        <v>0.37780000000000002</v>
+        <v>0.88880000000000003</v>
       </c>
       <c r="AR5">
-        <v>0.85570000000000002</v>
+        <v>0.71419999999999995</v>
       </c>
       <c r="AS5">
-        <v>0.6704</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="AT5">
-        <v>0.73860000000000003</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="AU5">
-        <v>0.58909999999999996</v>
+        <v>0.57630000000000003</v>
       </c>
       <c r="AV5">
-        <v>0.74450000000000005</v>
+        <v>0.5323</v>
       </c>
       <c r="AW5">
-        <v>0.62939999999999996</v>
+        <v>0.4819</v>
       </c>
       <c r="AX5">
-        <v>0.38840000000000002</v>
+        <v>0.57279999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.77539999999999998</v>
+        <v>0.33910000000000001</v>
       </c>
       <c r="B6">
-        <v>0.68810000000000004</v>
+        <v>0.45279999999999998</v>
       </c>
       <c r="C6">
-        <v>0.84370000000000001</v>
+        <v>0.80259999999999998</v>
       </c>
       <c r="D6">
-        <v>0.73640000000000005</v>
+        <v>0.79010000000000002</v>
       </c>
       <c r="E6">
-        <v>0.81779999999999997</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="F6">
-        <v>0.78620000000000001</v>
+        <v>0.86419999999999997</v>
       </c>
       <c r="G6">
-        <v>0.32500000000000001</v>
+        <v>0.75939999999999996</v>
       </c>
       <c r="H6">
-        <v>0.31330000000000002</v>
+        <v>0.4763</v>
       </c>
       <c r="I6">
-        <v>0.96020000000000005</v>
+        <v>0.73380000000000001</v>
       </c>
       <c r="J6">
-        <v>0.47549999999999998</v>
+        <v>0.52370000000000005</v>
       </c>
       <c r="K6">
-        <v>0.80889999999999995</v>
+        <v>0.7752</v>
       </c>
       <c r="L6">
-        <v>0.59789999999999999</v>
+        <v>0.54879999999999995</v>
       </c>
       <c r="M6">
-        <v>0.8599</v>
+        <v>0.73540000000000005</v>
       </c>
       <c r="N6">
-        <v>0.64749999999999996</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="O6">
-        <v>0.71535000000000004</v>
+        <v>0.4083</v>
       </c>
       <c r="P6">
-        <v>0.71089999999999998</v>
+        <v>0.60809999999999997</v>
       </c>
       <c r="Q6">
-        <v>0.79530000000000001</v>
+        <v>0.8397</v>
       </c>
       <c r="R6">
-        <v>0.80730000000000002</v>
+        <v>0.71189999999999998</v>
       </c>
       <c r="S6">
-        <v>0.71340000000000003</v>
+        <v>0.44469999999999998</v>
       </c>
       <c r="T6">
-        <v>0.69340000000000002</v>
+        <v>0.53269999999999995</v>
       </c>
       <c r="U6">
-        <v>0.72770000000000001</v>
+        <v>0.77590000000000003</v>
       </c>
       <c r="V6">
-        <v>0.35639999999999999</v>
+        <v>0.54390000000000005</v>
       </c>
       <c r="W6">
-        <v>0.36</v>
+        <v>0.4229</v>
       </c>
       <c r="X6">
-        <v>0.92689999999999995</v>
+        <v>0.35339999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.63090000000000002</v>
+        <v>0.47449999999999998</v>
       </c>
       <c r="Z6">
-        <v>0.53159999999999996</v>
+        <v>0.71689999999999998</v>
       </c>
       <c r="AA6">
-        <v>0.67789999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="AB6">
-        <v>0.27939999999999998</v>
+        <v>0.62160000000000004</v>
       </c>
       <c r="AC6">
-        <v>0.87109999999999999</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="AD6">
-        <v>0.57330000000000003</v>
+        <v>0.69369999999999998</v>
       </c>
       <c r="AE6">
-        <v>0.56110000000000004</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="AF6">
-        <v>0.86260000000000003</v>
+        <v>0.4894</v>
       </c>
       <c r="AG6">
-        <v>0.8115</v>
+        <v>0.55230000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.50209999999999999</v>
+        <v>0.311</v>
       </c>
       <c r="AI6">
-        <v>0.58899999999999997</v>
+        <v>0.34179999999999999</v>
       </c>
       <c r="AJ6">
-        <v>0.315</v>
+        <v>0.94569999999999999</v>
       </c>
       <c r="AK6">
-        <v>0.47510000000000002</v>
+        <v>0.70309999999999995</v>
       </c>
       <c r="AL6">
-        <v>0.61829999999999996</v>
+        <v>0.82630000000000003</v>
       </c>
       <c r="AM6">
-        <v>0.378</v>
+        <v>0.50339999999999996</v>
       </c>
       <c r="AN6">
-        <v>0.52</v>
+        <v>0.54959999999999998</v>
       </c>
       <c r="AO6">
-        <v>0.65529999999999999</v>
+        <v>0.3266</v>
       </c>
       <c r="AP6">
-        <v>0.50960000000000005</v>
+        <v>0.41260000000000002</v>
       </c>
       <c r="AQ6">
-        <v>0.3468</v>
+        <v>0.84409999999999996</v>
       </c>
       <c r="AR6">
-        <v>0.72050000000000003</v>
+        <v>0.81630000000000003</v>
       </c>
       <c r="AS6">
-        <v>0.64259999999999995</v>
+        <v>0.68140000000000001</v>
       </c>
       <c r="AT6">
-        <v>0.67810000000000004</v>
+        <v>0.82650000000000001</v>
       </c>
       <c r="AU6">
-        <v>0.71189999999999998</v>
+        <v>0.75529999999999997</v>
       </c>
       <c r="AV6">
-        <v>0.57750000000000001</v>
+        <v>0.56759999999999999</v>
       </c>
       <c r="AW6">
-        <v>0.6</v>
+        <v>0.45040000000000002</v>
       </c>
       <c r="AX6">
-        <v>0.68579999999999997</v>
+        <v>0.6079</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.60050000000000003</v>
+        <v>0.53569999999999995</v>
       </c>
       <c r="B7">
-        <v>0.66639999999999999</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="C7">
-        <v>0.92130000000000001</v>
+        <v>0.77639999999999998</v>
       </c>
       <c r="D7">
-        <v>0.86709999999999998</v>
+        <v>0.72860000000000003</v>
       </c>
       <c r="E7">
-        <v>0.70430000000000004</v>
+        <v>0.77359999999999995</v>
       </c>
       <c r="F7">
-        <v>0.66610000000000003</v>
+        <v>0.75960000000000005</v>
       </c>
       <c r="G7">
-        <v>0.19400000000000001</v>
+        <v>0.63719999999999999</v>
       </c>
       <c r="H7">
-        <v>0.59109999999999996</v>
+        <v>0.86539999999999995</v>
       </c>
       <c r="I7">
-        <v>0.93089999999999995</v>
+        <v>0.69440000000000002</v>
       </c>
       <c r="J7">
-        <v>0.51190000000000002</v>
+        <v>0.47910000000000003</v>
       </c>
       <c r="K7">
-        <v>0.87360000000000004</v>
+        <v>0.61770000000000003</v>
       </c>
       <c r="L7">
-        <v>0.41260000000000002</v>
+        <v>0.39240000000000003</v>
       </c>
       <c r="M7">
-        <v>0.82279999999999998</v>
+        <v>0.63770000000000004</v>
       </c>
       <c r="N7">
-        <v>0.79320000000000002</v>
+        <v>0.66359999999999997</v>
       </c>
       <c r="O7">
-        <v>0.72470000000000001</v>
+        <v>0.27439999999999998</v>
       </c>
       <c r="P7">
-        <v>0.53990000000000005</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.74629999999999996</v>
+        <v>0.80569999999999997</v>
       </c>
       <c r="R7">
-        <v>0.8407</v>
+        <v>0.64470000000000005</v>
       </c>
       <c r="S7">
-        <v>0.61170000000000002</v>
+        <v>0.39950000000000002</v>
       </c>
       <c r="T7">
-        <v>0.91459999999999997</v>
+        <v>0.4909</v>
       </c>
       <c r="U7">
-        <v>0.65269999999999995</v>
+        <v>0.93630000000000002</v>
       </c>
       <c r="V7">
-        <v>0.46089999999999998</v>
+        <v>0.56589999999999996</v>
       </c>
       <c r="W7">
-        <v>0.62490000000000001</v>
+        <v>0.39489999999999997</v>
       </c>
       <c r="X7">
-        <v>0.87819999999999998</v>
+        <v>0.59130000000000005</v>
       </c>
       <c r="Y7">
-        <v>0.56289999999999996</v>
+        <v>0.52270000000000005</v>
       </c>
       <c r="Z7">
-        <v>0.58960000000000001</v>
+        <v>0.61560000000000004</v>
       </c>
       <c r="AA7">
-        <v>0.68969999999999998</v>
+        <v>0.84830000000000005</v>
       </c>
       <c r="AB7">
-        <v>0.45119999999999999</v>
+        <v>0.74150000000000005</v>
       </c>
       <c r="AC7">
-        <v>0.92200000000000004</v>
+        <v>0.80820000000000003</v>
       </c>
       <c r="AD7">
-        <v>0.47839999999999999</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="AE7">
-        <v>0.49390000000000001</v>
+        <v>0.61180000000000001</v>
       </c>
       <c r="AF7">
-        <v>0.76670000000000005</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="AG7">
-        <v>0.69769999999999999</v>
+        <v>0.29289999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.40660000000000002</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.57550000000000001</v>
+        <v>0.47960000000000003</v>
       </c>
       <c r="AJ7">
-        <v>0.4869</v>
+        <v>0.75029999999999997</v>
       </c>
       <c r="AK7">
-        <v>0.29630000000000001</v>
+        <v>0.58760000000000001</v>
       </c>
       <c r="AL7">
-        <v>0.52759999999999996</v>
+        <v>0.64959999999999996</v>
       </c>
       <c r="AM7">
-        <v>0.2</v>
+        <v>0.65510000000000002</v>
       </c>
       <c r="AN7">
-        <v>0.53790000000000004</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="AO7">
-        <v>0.63160000000000005</v>
+        <v>0.41880000000000001</v>
       </c>
       <c r="AP7">
-        <v>0.46239999999999998</v>
+        <v>0.42949999999999999</v>
       </c>
       <c r="AQ7">
-        <v>0.35580000000000001</v>
+        <v>0.78769999999999996</v>
       </c>
       <c r="AR7">
-        <v>0.91110000000000002</v>
+        <v>0.72219999999999995</v>
       </c>
       <c r="AS7">
-        <v>0.68189999999999995</v>
+        <v>0.64929999999999999</v>
       </c>
       <c r="AT7">
-        <v>0.65100000000000002</v>
+        <v>0.84960000000000002</v>
       </c>
       <c r="AU7">
-        <v>0.62990000000000002</v>
+        <v>0.63239999999999996</v>
       </c>
       <c r="AV7">
-        <v>0.74099999999999999</v>
+        <v>0.59330000000000005</v>
       </c>
       <c r="AW7">
-        <v>0.70709999999999995</v>
+        <v>0.37869999999999998</v>
       </c>
       <c r="AX7">
-        <v>0.73529999999999995</v>
+        <v>0.50149999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.51170000000000004</v>
+        <v>0.4763</v>
       </c>
       <c r="B8">
-        <v>0.45950000000000002</v>
+        <v>0.42759999999999998</v>
       </c>
       <c r="C8">
-        <v>0.82440000000000002</v>
+        <v>0.71020000000000005</v>
       </c>
       <c r="D8">
-        <v>0.80630000000000002</v>
+        <v>0.81859999999999999</v>
       </c>
       <c r="E8">
-        <v>0.53890000000000005</v>
+        <v>0.8488</v>
       </c>
       <c r="F8">
-        <v>0.745</v>
+        <v>0.82450000000000001</v>
       </c>
       <c r="G8">
-        <v>4.6800000000000001E-2</v>
+        <v>0.65910000000000002</v>
       </c>
       <c r="H8">
-        <v>0.77869999999999995</v>
+        <v>0.80979999999999996</v>
       </c>
       <c r="I8">
-        <v>0.82779999999999998</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="J8">
-        <v>0.54390000000000005</v>
+        <v>0.38159999999999999</v>
       </c>
       <c r="K8">
-        <v>0.79879999999999995</v>
+        <v>0.4733</v>
       </c>
       <c r="L8">
-        <v>0.27750000000000002</v>
+        <v>0.5877</v>
       </c>
       <c r="M8">
-        <v>0.84199999999999997</v>
+        <v>0.80730000000000002</v>
       </c>
       <c r="N8">
-        <v>0.76580000000000004</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="O8">
-        <v>0.90869999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="P8">
-        <v>0.66039999999999999</v>
+        <v>0.45710000000000001</v>
       </c>
       <c r="Q8">
-        <v>0.63959999999999995</v>
+        <v>0.90469999999999995</v>
       </c>
       <c r="R8">
-        <v>0.80100000000000005</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="S8">
-        <v>0.49819999999999998</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="T8">
-        <v>0.96599999999999997</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="U8">
-        <v>0.87039999999999995</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="V8">
-        <v>0.42199999999999999</v>
+        <v>0.72389999999999999</v>
       </c>
       <c r="W8">
-        <v>0.63219999999999998</v>
+        <v>0.80179999999999996</v>
       </c>
       <c r="X8">
-        <v>0.83889999999999998</v>
+        <v>0.67749999999999999</v>
       </c>
       <c r="Y8">
-        <v>0.71379999999999999</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="Z8">
-        <v>0.57650000000000001</v>
+        <v>0.57820000000000005</v>
       </c>
       <c r="AA8">
-        <v>0.5716</v>
+        <v>0.62119999999999997</v>
       </c>
       <c r="AB8">
-        <v>0.44230000000000003</v>
+        <v>0.74470000000000003</v>
       </c>
       <c r="AC8">
-        <v>0.97340000000000004</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="AD8">
-        <v>0.47370000000000001</v>
+        <v>0.75090000000000001</v>
       </c>
       <c r="AE8">
-        <v>0.61560000000000004</v>
+        <v>0.47110000000000002</v>
       </c>
       <c r="AF8">
-        <v>0.75380000000000003</v>
+        <v>0.51459999999999995</v>
       </c>
       <c r="AG8">
-        <v>0.87160000000000004</v>
+        <v>0.2681</v>
       </c>
       <c r="AH8">
-        <v>0.24560000000000001</v>
+        <v>0.2545</v>
       </c>
       <c r="AI8">
-        <v>0.46389999999999998</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="AJ8">
-        <v>0.38664999999999999</v>
+        <v>0.73470000000000002</v>
       </c>
       <c r="AK8">
-        <v>0.45300000000000001</v>
+        <v>0.46920000000000001</v>
       </c>
       <c r="AL8">
-        <v>0.63080000000000003</v>
+        <v>0.60850000000000004</v>
       </c>
       <c r="AM8">
-        <v>0.27589999999999998</v>
+        <v>0.41089999999999999</v>
       </c>
       <c r="AN8">
-        <v>0.48399999999999999</v>
+        <v>0.62809999999999999</v>
       </c>
       <c r="AO8">
-        <v>0.71630000000000005</v>
+        <v>0.4642</v>
       </c>
       <c r="AP8">
-        <v>0.44350000000000001</v>
+        <v>0.25430000000000003</v>
       </c>
       <c r="AQ8">
-        <v>0.45390000000000003</v>
+        <v>0.59650000000000003</v>
       </c>
       <c r="AR8">
-        <v>0.86240000000000006</v>
+        <v>0.54620000000000002</v>
       </c>
       <c r="AS8">
-        <v>0.8327</v>
+        <v>0.52159999999999995</v>
       </c>
       <c r="AT8">
-        <v>0.74370000000000003</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="AU8">
-        <v>0.51429999999999998</v>
+        <v>0.46539999999999998</v>
       </c>
       <c r="AV8">
-        <v>0.74719999999999998</v>
+        <v>0.54779999999999995</v>
       </c>
       <c r="AW8">
-        <v>0.83940000000000003</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="AX8">
-        <v>0.67879999999999996</v>
+        <v>0.33610000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.308</v>
+        <v>0.36830000000000002</v>
       </c>
       <c r="B9">
-        <v>0.50329999999999997</v>
+        <v>0.24429999999999999</v>
       </c>
       <c r="C9">
-        <v>0.53310000000000002</v>
+        <v>0.79179999999999995</v>
       </c>
       <c r="D9">
-        <v>0.65190000000000003</v>
+        <v>0.872</v>
       </c>
       <c r="E9">
-        <v>0.38479999999999998</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="F9">
-        <v>0.64059999999999995</v>
+        <v>0.74019999999999997</v>
       </c>
       <c r="G9">
-        <v>9.6799999999999997E-2</v>
+        <v>0.51080000000000003</v>
       </c>
       <c r="H9">
-        <v>0.55210000000000004</v>
+        <v>0.63880000000000003</v>
       </c>
       <c r="I9">
-        <v>0.60950000000000004</v>
+        <v>0.59860000000000002</v>
       </c>
       <c r="J9">
-        <v>0.71730000000000005</v>
+        <v>0.51239999999999997</v>
       </c>
       <c r="K9">
-        <v>0.75170000000000003</v>
+        <v>0.46439999999999998</v>
       </c>
       <c r="L9">
-        <v>0.41039999999999999</v>
+        <v>0.49430000000000002</v>
       </c>
       <c r="M9">
-        <v>0.75090000000000001</v>
+        <v>0.87719999999999998</v>
       </c>
       <c r="N9">
-        <v>0.85040000000000004</v>
+        <v>0.44569999999999999</v>
       </c>
       <c r="O9">
-        <v>0.83489999999999998</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="P9">
-        <v>0.75580000000000003</v>
+        <v>0.34689999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.72230000000000005</v>
+        <v>0.91</v>
       </c>
       <c r="R9">
-        <v>0.70530000000000004</v>
+        <v>0.88160000000000005</v>
       </c>
       <c r="S9">
-        <v>0.43890000000000001</v>
+        <v>0.81910000000000005</v>
       </c>
       <c r="T9">
-        <v>0.95599999999999996</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="U9">
-        <v>0.80630000000000002</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="V9">
-        <v>0.50670000000000004</v>
+        <v>0.63970000000000005</v>
       </c>
       <c r="W9">
-        <v>0.49740000000000001</v>
+        <v>0.75060000000000004</v>
       </c>
       <c r="X9">
-        <v>0.76119999999999999</v>
+        <v>0.73019999999999996</v>
       </c>
       <c r="Y9">
-        <v>0.60660000000000003</v>
+        <v>0.48370000000000002</v>
       </c>
       <c r="Z9">
-        <v>0.52190000000000003</v>
+        <v>0.69469999999999998</v>
       </c>
       <c r="AA9">
-        <v>0.50739999999999996</v>
+        <v>0.45069999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.36199999999999999</v>
+        <v>0.80420000000000003</v>
       </c>
       <c r="AC9">
-        <v>0.94689999999999996</v>
+        <v>0.80269999999999997</v>
       </c>
       <c r="AD9">
-        <v>0.51280000000000003</v>
+        <v>0.62229999999999996</v>
       </c>
       <c r="AE9">
-        <v>0.40010000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="AF9">
-        <v>0.56210000000000004</v>
+        <v>0.47020000000000001</v>
       </c>
       <c r="AG9">
-        <v>0.89539999999999997</v>
+        <v>0.34820000000000001</v>
       </c>
       <c r="AH9">
-        <v>7.4800000000000005E-2</v>
+        <v>0.42409999999999998</v>
       </c>
       <c r="AI9">
-        <v>0.64119999999999999</v>
+        <v>0.52480000000000004</v>
       </c>
       <c r="AJ9">
-        <v>0.4955</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="AK9">
-        <v>0.71479999999999999</v>
+        <v>0.25559999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.74480000000000002</v>
+        <v>0.53290000000000004</v>
       </c>
       <c r="AM9">
-        <v>0.24260000000000001</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="AN9">
-        <v>0.45429999999999998</v>
+        <v>0.57150000000000001</v>
       </c>
       <c r="AO9">
-        <v>0.6764</v>
+        <v>0.30470000000000003</v>
       </c>
       <c r="AP9">
-        <v>0.42980000000000002</v>
+        <v>0.34670000000000001</v>
       </c>
       <c r="AQ9">
-        <v>0.38069999999999998</v>
+        <v>0.38679999999999998</v>
       </c>
       <c r="AR9">
-        <v>0.80300000000000005</v>
+        <v>0.58220000000000005</v>
       </c>
       <c r="AS9">
-        <v>0.89890000000000003</v>
+        <v>0.70230000000000004</v>
       </c>
       <c r="AT9">
-        <v>0.77159999999999995</v>
+        <v>0.94230000000000003</v>
       </c>
       <c r="AU9">
-        <v>0.36209999999999998</v>
+        <v>0.30130000000000001</v>
       </c>
       <c r="AV9">
-        <v>0.92920000000000003</v>
+        <v>0.5786</v>
       </c>
       <c r="AW9">
-        <v>0.57189999999999996</v>
+        <v>0.32869999999999999</v>
       </c>
       <c r="AX9">
-        <v>0.83899999999999997</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.27089999999999997</v>
+        <v>0.2472</v>
       </c>
       <c r="B10">
-        <v>0.4667</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="C10">
-        <v>0.38129999999999997</v>
+        <v>0.75029999999999997</v>
       </c>
       <c r="D10">
-        <v>0.81169999999999998</v>
+        <v>0.7409</v>
       </c>
       <c r="E10">
-        <v>0.36380000000000001</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="F10">
-        <v>0.71099999999999997</v>
+        <v>0.8921</v>
       </c>
       <c r="G10">
-        <v>3.78E-2</v>
+        <v>0.46279999999999999</v>
       </c>
       <c r="H10">
-        <v>0.55840000000000001</v>
+        <v>0.34329999999999999</v>
       </c>
       <c r="I10">
-        <v>0.71009999999999995</v>
+        <v>0.55679999999999996</v>
       </c>
       <c r="J10">
-        <v>0.70020000000000004</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="K10">
-        <v>0.66559999999999997</v>
+        <v>0.4602</v>
       </c>
       <c r="L10">
-        <v>0.31509999999999999</v>
+        <v>0.56459999999999999</v>
       </c>
       <c r="M10">
-        <v>0.63660000000000005</v>
+        <v>0.73209999999999997</v>
       </c>
       <c r="N10">
-        <v>0.88239999999999996</v>
+        <v>0.40550000000000003</v>
       </c>
       <c r="O10">
-        <v>0.86219999999999997</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="P10">
-        <v>0.63260000000000005</v>
+        <v>0.10059999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.69220000000000004</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="R10">
-        <v>0.56289999999999996</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="S10">
-        <v>0.52759999999999996</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="T10">
-        <v>0.94530000000000003</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="U10">
-        <v>0.67230000000000001</v>
+        <v>0.88490000000000002</v>
       </c>
       <c r="V10">
-        <v>0.52129999999999999</v>
+        <v>0.76390000000000002</v>
       </c>
       <c r="W10">
-        <v>0.52869999999999995</v>
+        <v>0.80940000000000001</v>
       </c>
       <c r="X10">
-        <v>0.88990000000000002</v>
+        <v>0.76519999999999999</v>
       </c>
       <c r="Y10">
-        <v>0.36620000000000003</v>
+        <v>0.32050000000000001</v>
       </c>
       <c r="Z10">
-        <v>0.51590000000000003</v>
+        <v>0.59289999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.55969999999999998</v>
+        <v>0.39750000000000002</v>
       </c>
       <c r="AB10">
-        <v>0.33629999999999999</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="AC10">
-        <v>0.89270000000000005</v>
+        <v>0.70640000000000003</v>
       </c>
       <c r="AD10">
-        <v>0.5403</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="AE10">
-        <v>0.4713</v>
+        <v>0.63619999999999999</v>
       </c>
       <c r="AF10">
-        <v>0.71230000000000004</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="AG10">
-        <v>0.99009999999999998</v>
+        <v>0.44230000000000003</v>
       </c>
       <c r="AH10">
-        <v>6.2799999999999995E-2</v>
+        <v>0.37940000000000002</v>
       </c>
       <c r="AI10">
-        <v>0.65339999999999998</v>
+        <v>0.64549999999999996</v>
       </c>
       <c r="AJ10">
-        <v>0.79469999999999996</v>
+        <v>0.48159999999999997</v>
       </c>
       <c r="AK10">
-        <v>0.73839999999999995</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="AL10">
-        <v>0.77680000000000005</v>
+        <v>0.32440000000000002</v>
       </c>
       <c r="AM10">
-        <v>0.47770000000000001</v>
+        <v>0.7833</v>
       </c>
       <c r="AN10">
-        <v>0.48480000000000001</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="AO10">
-        <v>0.65039999999999998</v>
+        <v>0.2172</v>
       </c>
       <c r="AP10">
-        <v>0.47499999999999998</v>
+        <v>0.63560000000000005</v>
       </c>
       <c r="AQ10">
-        <v>0.35699999999999998</v>
+        <v>0.46489999999999998</v>
       </c>
       <c r="AR10">
-        <v>0.76470000000000005</v>
+        <v>0.42509999999999998</v>
       </c>
       <c r="AS10">
-        <v>0.80349999999999999</v>
+        <v>0.43759999999999999</v>
       </c>
       <c r="AT10">
-        <v>0.77590000000000003</v>
+        <v>0.91239999999999999</v>
       </c>
       <c r="AU10">
-        <v>0.41970000000000002</v>
+        <v>0.33040000000000003</v>
       </c>
       <c r="AV10">
-        <v>0.87219999999999998</v>
+        <v>0.54239999999999999</v>
       </c>
       <c r="AW10">
-        <v>0.50170000000000003</v>
+        <v>0.52180000000000004</v>
       </c>
       <c r="AX10">
-        <v>0.65300000000000002</v>
+        <v>0.1268</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.1318</v>
+        <v>0.56420000000000003</v>
       </c>
       <c r="B11">
-        <v>0.28720000000000001</v>
+        <v>0.69720000000000004</v>
       </c>
       <c r="C11">
-        <v>0.13</v>
+        <v>0.75249999999999995</v>
       </c>
       <c r="D11">
-        <v>0.70840000000000003</v>
+        <v>0.58260000000000001</v>
       </c>
       <c r="E11">
-        <v>0.50470000000000004</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="F11">
-        <v>0.4819</v>
+        <v>0.8569</v>
       </c>
       <c r="G11">
-        <v>8.6499999999999994E-2</v>
+        <v>0.46079999999999999</v>
       </c>
       <c r="H11">
-        <v>0.40500000000000003</v>
+        <v>0.5827</v>
       </c>
       <c r="I11">
-        <v>0.57540000000000002</v>
+        <v>0.70030000000000003</v>
       </c>
       <c r="J11">
-        <v>0.62580000000000002</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="K11">
-        <v>0.58069999999999999</v>
+        <v>0.56230000000000002</v>
       </c>
       <c r="L11">
-        <v>0.4783</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="M11">
-        <v>0.6038</v>
+        <v>0.77390000000000003</v>
       </c>
       <c r="N11">
-        <v>0.8962</v>
+        <v>0.50380000000000003</v>
       </c>
       <c r="O11">
-        <v>0.73240000000000005</v>
+        <v>0.46870000000000001</v>
       </c>
       <c r="P11">
-        <v>0.69030000000000002</v>
+        <v>0.2525</v>
       </c>
       <c r="Q11">
-        <v>0.57699999999999996</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="R11">
-        <v>0.58389999999999997</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="S11">
-        <v>0.53800000000000003</v>
+        <v>0.63719999999999999</v>
       </c>
       <c r="T11">
-        <v>0.87819999999999998</v>
+        <v>0.63439999999999996</v>
       </c>
       <c r="U11">
-        <v>0.80979999999999996</v>
+        <v>0.91190000000000004</v>
       </c>
       <c r="V11">
-        <v>0.35299999999999998</v>
+        <v>0.71440000000000003</v>
       </c>
       <c r="W11">
-        <v>0.53100000000000003</v>
+        <v>0.69169999999999998</v>
       </c>
       <c r="X11">
-        <v>0.78879999999999995</v>
+        <v>0.66569999999999996</v>
       </c>
       <c r="Y11">
-        <v>0.62590000000000001</v>
+        <v>0.25290000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.67849999999999999</v>
+        <v>0.74350000000000005</v>
       </c>
       <c r="AA11">
-        <v>0.76729999999999998</v>
+        <v>0.2082</v>
       </c>
       <c r="AB11">
-        <v>0.3856</v>
+        <v>0.61529999999999996</v>
       </c>
       <c r="AC11">
-        <v>0.73040000000000005</v>
+        <v>0.73909999999999998</v>
       </c>
       <c r="AD11">
-        <v>0.39829999999999999</v>
+        <v>0.68620000000000003</v>
       </c>
       <c r="AE11">
-        <v>0.47410000000000002</v>
+        <v>0.54290000000000005</v>
       </c>
       <c r="AF11">
-        <v>0.68899999999999995</v>
+        <v>0.33589999999999998</v>
       </c>
       <c r="AG11">
-        <v>0.95840000000000003</v>
+        <v>0.43740000000000001</v>
       </c>
       <c r="AH11">
-        <v>3.8800000000000001E-2</v>
+        <v>0.57330000000000003</v>
       </c>
       <c r="AI11">
-        <v>0.57479999999999998</v>
+        <v>0.65290000000000004</v>
       </c>
       <c r="AJ11">
-        <v>0.78110000000000002</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.60809999999999997</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.77339999999999998</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="AM11">
-        <v>0.4138</v>
+        <v>0.85940000000000005</v>
       </c>
       <c r="AN11">
-        <v>0.36009999999999998</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="AO11">
-        <v>0.59730000000000005</v>
+        <v>0.41789999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.51939999999999997</v>
+        <v>0.64980000000000004</v>
       </c>
       <c r="AQ11">
-        <v>0.25640000000000002</v>
+        <v>0.85229999999999995</v>
       </c>
       <c r="AR11">
-        <v>0.83179999999999998</v>
+        <v>0.2215</v>
       </c>
       <c r="AS11">
-        <v>0.63270000000000004</v>
+        <v>0.5615</v>
       </c>
       <c r="AT11">
-        <v>0.84189999999999998</v>
+        <v>0.89929999999999999</v>
       </c>
       <c r="AU11">
-        <v>0.49930000000000002</v>
+        <v>0.30719999999999997</v>
       </c>
       <c r="AV11">
-        <v>0.89510000000000001</v>
+        <v>0.61009999999999998</v>
       </c>
       <c r="AW11">
-        <v>0.52600000000000002</v>
+        <v>0.55489999999999995</v>
       </c>
       <c r="AX11">
-        <v>0.52780000000000005</v>
+        <v>7.9899999999999999E-2</v>
       </c>
     </row>
   </sheetData>
